--- a/data/delphiFirst.xlsx
+++ b/data/delphiFirst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinm\Dropbox\Myself\collaborators\cld-tech\research\AI_policy_LD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A103EA-42B3-495A-B54C-88F40786182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E40AE9-6A2C-4AD6-93CC-EC208EA5BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="192">
   <si>
     <t>Q33_1</t>
   </si>
@@ -543,6 +543,60 @@
   </si>
   <si>
     <t>Q32</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>NV / NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state </t>
+  </si>
+  <si>
+    <t>census_region</t>
   </si>
 </sst>
 </file>
@@ -934,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,10 +1002,12 @@
     <col min="47" max="47" width="19.109375" style="2" customWidth="1"/>
     <col min="48" max="52" width="8.88671875" style="2"/>
     <col min="53" max="53" width="15.21875" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="8.88671875" style="2"/>
+    <col min="54" max="54" width="8.88671875" style="2"/>
+    <col min="55" max="55" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
@@ -1111,8 +1167,14 @@
       <c r="BA1" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -1272,8 +1334,14 @@
       <c r="BA2" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="BB2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
@@ -1433,8 +1501,14 @@
       <c r="BA3" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="BB3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>119</v>
       </c>
@@ -1594,8 +1668,14 @@
       <c r="BA4" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="BB4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -1755,8 +1835,14 @@
       <c r="BA5" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="BB5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1916,8 +2002,14 @@
       <c r="BA6" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="BB6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
@@ -2077,8 +2169,14 @@
       <c r="BA7" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="BB7" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -2238,8 +2336,14 @@
       <c r="BA8" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="BB8" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -2399,8 +2503,14 @@
       <c r="BA9" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="BB9" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -2560,8 +2670,14 @@
       <c r="BA10" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="BB10" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -2721,8 +2837,14 @@
       <c r="BA11" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="BB11" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -2882,8 +3004,14 @@
       <c r="BA12" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="BB12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>128</v>
       </c>
@@ -3043,8 +3171,14 @@
       <c r="BA13" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="BB13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -3204,8 +3338,14 @@
       <c r="BA14" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="BB14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>130</v>
       </c>
@@ -3365,8 +3505,14 @@
       <c r="BA15" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="BB15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
@@ -3526,8 +3672,14 @@
       <c r="BA16" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="BB16" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3687,8 +3839,14 @@
       <c r="BA17" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="BB17" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>133</v>
       </c>
@@ -3847,6 +4005,12 @@
       </c>
       <c r="BA18" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
